--- a/003-实心实验加分表.xlsx
+++ b/003-实心实验加分表.xlsx
@@ -15,14 +15,14 @@
     <sheet name="实心实验I学生名单2" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">实心实验I学生名单2!$A$1:$B$121</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">实心实验I学生名单2!$A$1:$A$121</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="248">
   <si>
     <t>学号</t>
   </si>
@@ -748,309 +748,25 @@
   </si>
   <si>
     <t>余晓帆</t>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>5</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
+    <t>*</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>加分项（第一周）</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
     <t>5</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>5</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>9</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>9</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>9</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>11</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>11</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>11</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>11</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>12</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>12</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>12</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>13</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>13</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>13</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>13</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>13</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>14</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>14</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>14</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>15</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>15</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>15</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>16</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>16</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>16</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>17</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>17</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>17</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>17</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>17</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>18</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>18</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>18</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>19</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>19</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>19</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>19</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>20</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>20</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>20</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>20</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>组别</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>*</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>加分项（第一周）</t>
+    <t>加分项（第二周）</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
@@ -2055,37 +1771,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M121"/>
+  <dimension ref="A1:L121"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7" style="9" customWidth="1"/>
-    <col min="2" max="2" width="6.5" style="9" customWidth="1"/>
-    <col min="3" max="3" width="11.125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="11.25" style="9" customWidth="1"/>
-    <col min="5" max="5" width="13.75" style="9" customWidth="1"/>
-    <col min="6" max="13" width="11.25" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="11.125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="11.25" style="9" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="9" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="3" customWidth="1"/>
+    <col min="6" max="12" width="11.25" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A1" s="6"/>
       <c r="B1" s="6" t="s">
-        <v>315</v>
+        <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>317</v>
+        <v>246</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -2094,22 +1810,19 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>242</v>
+        <v>153</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="D2" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="E2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -2117,22 +1830,19 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>243</v>
+        <v>179</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="D3" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -2140,22 +1850,19 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>244</v>
+        <v>197</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="D4" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="E4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -2163,22 +1870,19 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>245</v>
+        <v>61</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -2186,22 +1890,19 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>245</v>
+        <v>109</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D6" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="E6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
@@ -2209,22 +1910,19 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>245</v>
+        <v>25</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -2232,22 +1930,19 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>246</v>
+        <v>27</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -2255,22 +1950,19 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>246</v>
+        <v>75</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -2278,22 +1970,19 @@
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>247</v>
+        <v>161</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="D10" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="E10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -2301,22 +1990,19 @@
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>246</v>
+        <v>131</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="D11" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="E11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
@@ -2324,22 +2010,19 @@
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>248</v>
+        <v>167</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="D12" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="E12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
@@ -2347,22 +2030,19 @@
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>246</v>
+        <v>31</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -2370,22 +2050,19 @@
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>249</v>
+        <v>77</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="E14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -2393,22 +2070,19 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>250</v>
+        <v>203</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="D15" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="E15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -2416,22 +2090,19 @@
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>249</v>
+        <v>99</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D16" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="E16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -2439,22 +2110,19 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="D17" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="E17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
@@ -2462,22 +2130,19 @@
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="D18" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="E18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
@@ -2485,22 +2150,19 @@
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>250</v>
+        <v>155</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="D19" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="E19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
@@ -2508,22 +2170,19 @@
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>253</v>
+        <v>157</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="D20" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="E20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
@@ -2531,22 +2190,19 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>254</v>
+        <v>93</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D21" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="E21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -2554,22 +2210,19 @@
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>254</v>
+        <v>81</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D22" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="E22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
@@ -2577,22 +2230,19 @@
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>255</v>
+        <v>141</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D23" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="E23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
@@ -2600,22 +2250,19 @@
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>253</v>
+        <v>185</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="D24" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="E24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
@@ -2623,22 +2270,19 @@
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>254</v>
+        <v>101</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D25" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="E25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
@@ -2646,22 +2290,19 @@
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>256</v>
+        <v>63</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D26" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -2669,22 +2310,19 @@
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>257</v>
+        <v>107</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="D27" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="E27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -2692,22 +2330,19 @@
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>256</v>
+        <v>147</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="D28" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="E28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -2715,22 +2350,19 @@
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>258</v>
+        <v>165</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D29" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="E29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
@@ -2738,22 +2370,19 @@
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>258</v>
+        <v>169</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="D30" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="E30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
@@ -2761,22 +2390,19 @@
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>258</v>
+        <v>123</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="D31" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="E31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
@@ -2784,22 +2410,19 @@
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>259</v>
+        <v>57</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D32" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -2807,22 +2430,19 @@
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>260</v>
+        <v>55</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D33" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
@@ -2830,22 +2450,19 @@
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>261</v>
+        <v>87</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D34" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="E34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
@@ -2853,22 +2470,19 @@
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>259</v>
+        <v>45</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D35" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
@@ -2876,22 +2490,19 @@
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>262</v>
+        <v>221</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="D36" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="E36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
@@ -2899,22 +2510,19 @@
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>259</v>
+        <v>207</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="D37" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="E37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
@@ -2922,22 +2530,19 @@
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>263</v>
+        <v>67</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D38" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
@@ -2945,22 +2550,19 @@
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>264</v>
+        <v>85</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D39" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
@@ -2968,22 +2570,19 @@
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>265</v>
+        <v>35</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D40" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
@@ -2991,22 +2590,19 @@
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>263</v>
+        <v>103</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D41" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="E41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
@@ -3014,22 +2610,19 @@
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>266</v>
+        <v>235</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="D42" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="E42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="5"/>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
@@ -3037,22 +2630,19 @@
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>263</v>
+        <v>193</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="D43" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="E43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="5"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
@@ -3060,22 +2650,19 @@
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>267</v>
+        <v>113</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D44" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
@@ -3083,22 +2670,19 @@
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>267</v>
+        <v>211</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="D45" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="E45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
@@ -3106,22 +2690,19 @@
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>268</v>
+        <v>137</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="D46" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="E46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
@@ -3129,22 +2710,19 @@
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>268</v>
+        <v>223</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="D47" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="E47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="5"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
@@ -3152,22 +2730,19 @@
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>269</v>
+        <v>217</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="D48" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="E48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="5"/>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
@@ -3175,22 +2750,19 @@
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
-      <c r="M48" s="5"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>270</v>
+        <v>209</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="D49" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="E49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="5"/>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
@@ -3198,22 +2770,19 @@
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
-      <c r="M49" s="5"/>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>271</v>
+        <v>69</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D50" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
@@ -3221,22 +2790,19 @@
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
-      <c r="M50" s="4"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>272</v>
+        <v>65</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D51" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="4"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
@@ -3244,22 +2810,19 @@
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
-      <c r="M51" s="4"/>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>273</v>
+        <v>205</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="D52" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="E52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="4"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
@@ -3267,22 +2830,19 @@
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
-      <c r="M52" s="4"/>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D53" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="E53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="5"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
@@ -3290,22 +2850,19 @@
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>271</v>
+        <v>97</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="D54" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="E54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="5"/>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
@@ -3313,22 +2870,19 @@
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
-      <c r="M54" s="5"/>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>271</v>
+        <v>111</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="D55" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="5"/>
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
@@ -3336,22 +2890,19 @@
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
-      <c r="M55" s="5"/>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>274</v>
+        <v>37</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D56" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="4"/>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
@@ -3359,22 +2910,19 @@
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
-      <c r="M56" s="4"/>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>274</v>
+        <v>47</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D57" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="4"/>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
@@ -3382,22 +2930,19 @@
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
-      <c r="M57" s="4"/>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>274</v>
+        <v>91</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D58" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="E58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="4"/>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
@@ -3405,22 +2950,19 @@
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
-      <c r="M58" s="4"/>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>275</v>
+        <v>21</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D59" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="5"/>
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
@@ -3428,22 +2970,19 @@
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
-      <c r="M59" s="5"/>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>276</v>
+        <v>191</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="D60" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="E60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="5"/>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
@@ -3451,22 +2990,19 @@
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
-      <c r="M60" s="5"/>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>277</v>
+        <v>59</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D61" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="5"/>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
@@ -3474,22 +3010,19 @@
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
-      <c r="M61" s="5"/>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>278</v>
+        <v>9</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="4"/>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
@@ -3497,22 +3030,21 @@
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
-      <c r="M62" s="4"/>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>279</v>
+        <v>33</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D63" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="4" t="s">
+        <v>247</v>
+      </c>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
@@ -3520,22 +3052,19 @@
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
-      <c r="M63" s="4"/>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>279</v>
+        <v>23</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D64" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="4"/>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
@@ -3543,22 +3072,19 @@
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
-      <c r="M64" s="4"/>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>280</v>
+        <v>171</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="D65" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="E65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="5"/>
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
@@ -3566,22 +3092,19 @@
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
       <c r="L65" s="5"/>
-      <c r="M65" s="5"/>
-    </row>
-    <row r="66" spans="1:13" ht="22.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>281</v>
+        <v>237</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="D66" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="E66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="5"/>
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
@@ -3589,22 +3112,19 @@
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
-      <c r="M66" s="5"/>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>280</v>
+        <v>115</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D67" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="E67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="5"/>
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
@@ -3612,22 +3132,19 @@
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
       <c r="L67" s="5"/>
-      <c r="M67" s="5"/>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>282</v>
+        <v>177</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="D68" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="E68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="4"/>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
@@ -3635,22 +3152,19 @@
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
       <c r="L68" s="4"/>
-      <c r="M68" s="4"/>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>283</v>
+        <v>173</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="D69" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="E69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="4"/>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
@@ -3658,22 +3172,19 @@
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
       <c r="L69" s="4"/>
-      <c r="M69" s="4"/>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>283</v>
+        <v>53</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D70" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="4"/>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
@@ -3681,22 +3192,19 @@
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
       <c r="L70" s="4"/>
-      <c r="M70" s="4"/>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>284</v>
+        <v>89</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D71" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="5"/>
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
@@ -3704,22 +3212,19 @@
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
       <c r="L71" s="5"/>
-      <c r="M71" s="5"/>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>283</v>
+        <v>195</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="D72" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="E72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="5"/>
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
@@ -3727,22 +3232,19 @@
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
       <c r="L72" s="5"/>
-      <c r="M72" s="5"/>
-    </row>
-    <row r="73" spans="1:13" ht="22.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>284</v>
+        <v>239</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="D73" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="E73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="5"/>
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
@@ -3750,22 +3252,19 @@
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
       <c r="L73" s="5"/>
-      <c r="M73" s="5"/>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>285</v>
+        <v>5</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D74" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="4"/>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
@@ -3773,22 +3272,19 @@
       <c r="J74" s="4"/>
       <c r="K74" s="4"/>
       <c r="L74" s="4"/>
-      <c r="M74" s="4"/>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>286</v>
+        <v>17</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D75" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="4"/>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
@@ -3796,22 +3292,19 @@
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
       <c r="L75" s="4"/>
-      <c r="M75" s="4"/>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>285</v>
+        <v>181</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="D76" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="E76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="4"/>
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
@@ -3819,22 +3312,19 @@
       <c r="J76" s="4"/>
       <c r="K76" s="4"/>
       <c r="L76" s="4"/>
-      <c r="M76" s="4"/>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>286</v>
+        <v>119</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="D77" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="E77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="5"/>
       <c r="F77" s="5"/>
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
@@ -3842,22 +3332,19 @@
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
       <c r="L77" s="5"/>
-      <c r="M77" s="5"/>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>287</v>
+        <v>15</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D78" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="5"/>
       <c r="F78" s="5"/>
       <c r="G78" s="5"/>
       <c r="H78" s="5"/>
@@ -3865,22 +3352,19 @@
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
       <c r="L78" s="5"/>
-      <c r="M78" s="5"/>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>288</v>
+        <v>201</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="D79" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="E79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="5"/>
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
       <c r="H79" s="5"/>
@@ -3888,22 +3372,19 @@
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
       <c r="L79" s="5"/>
-      <c r="M79" s="5"/>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>289</v>
+        <v>189</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="D80" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="E80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="4"/>
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
@@ -3911,24 +3392,21 @@
       <c r="J80" s="4"/>
       <c r="K80" s="4"/>
       <c r="L80" s="4"/>
-      <c r="M80" s="4"/>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>290</v>
+        <v>11</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E81" s="7" t="s">
-        <v>257</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="E81" s="4"/>
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
@@ -3936,22 +3414,19 @@
       <c r="J81" s="4"/>
       <c r="K81" s="4"/>
       <c r="L81" s="4"/>
-      <c r="M81" s="4"/>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>291</v>
+        <v>133</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D82" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="E82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="4"/>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
@@ -3959,22 +3434,19 @@
       <c r="J82" s="4"/>
       <c r="K82" s="4"/>
       <c r="L82" s="4"/>
-      <c r="M82" s="4"/>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>292</v>
+        <v>105</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="D83" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="E83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="5"/>
       <c r="F83" s="5"/>
       <c r="G83" s="5"/>
       <c r="H83" s="5"/>
@@ -3982,22 +3454,19 @@
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
       <c r="L83" s="5"/>
-      <c r="M83" s="5"/>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>291</v>
+        <v>139</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="D84" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="E84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="5"/>
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
       <c r="H84" s="5"/>
@@ -4005,22 +3474,19 @@
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
       <c r="L84" s="5"/>
-      <c r="M84" s="5"/>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>292</v>
+        <v>145</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D85" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="E85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="5"/>
       <c r="F85" s="5"/>
       <c r="G85" s="5"/>
       <c r="H85" s="5"/>
@@ -4028,22 +3494,19 @@
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
       <c r="L85" s="5"/>
-      <c r="M85" s="5"/>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>293</v>
+        <v>13</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D86" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="4"/>
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
@@ -4051,22 +3514,19 @@
       <c r="J86" s="4"/>
       <c r="K86" s="4"/>
       <c r="L86" s="4"/>
-      <c r="M86" s="4"/>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>294</v>
+        <v>149</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="D87" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="E87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="4"/>
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
@@ -4074,22 +3534,19 @@
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
       <c r="L87" s="4"/>
-      <c r="M87" s="4"/>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>295</v>
+        <v>213</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="D88" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="E88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="4"/>
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
@@ -4097,22 +3554,19 @@
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
       <c r="L88" s="4"/>
-      <c r="M88" s="4"/>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>295</v>
+        <v>215</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="D89" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="E89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="5"/>
       <c r="F89" s="5"/>
       <c r="G89" s="5"/>
       <c r="H89" s="5"/>
@@ -4120,22 +3574,19 @@
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
       <c r="L89" s="5"/>
-      <c r="M89" s="5"/>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>295</v>
+        <v>41</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D90" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E90" s="8"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="5"/>
       <c r="F90" s="5"/>
       <c r="G90" s="5"/>
       <c r="H90" s="5"/>
@@ -4143,22 +3594,19 @@
       <c r="J90" s="5"/>
       <c r="K90" s="5"/>
       <c r="L90" s="5"/>
-      <c r="M90" s="5"/>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>295</v>
+        <v>183</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="D91" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="E91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="5"/>
       <c r="F91" s="5"/>
       <c r="G91" s="5"/>
       <c r="H91" s="5"/>
@@ -4166,22 +3614,19 @@
       <c r="J91" s="5"/>
       <c r="K91" s="5"/>
       <c r="L91" s="5"/>
-      <c r="M91" s="5"/>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>296</v>
+        <v>95</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D92" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="E92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="4"/>
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
@@ -4189,22 +3634,19 @@
       <c r="J92" s="4"/>
       <c r="K92" s="4"/>
       <c r="L92" s="4"/>
-      <c r="M92" s="4"/>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>297</v>
+        <v>117</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D93" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="E93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="4"/>
       <c r="F93" s="4"/>
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
@@ -4212,22 +3654,19 @@
       <c r="J93" s="4"/>
       <c r="K93" s="4"/>
       <c r="L93" s="4"/>
-      <c r="M93" s="4"/>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>296</v>
+        <v>175</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="D94" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="E94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="4"/>
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
       <c r="H94" s="4"/>
@@ -4235,22 +3674,19 @@
       <c r="J94" s="4"/>
       <c r="K94" s="4"/>
       <c r="L94" s="4"/>
-      <c r="M94" s="4"/>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>297</v>
+        <v>151</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="D95" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="E95" s="8"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="5"/>
       <c r="F95" s="5"/>
       <c r="G95" s="5"/>
       <c r="H95" s="5"/>
@@ -4258,22 +3694,19 @@
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
       <c r="L95" s="5"/>
-      <c r="M95" s="5"/>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>298</v>
+        <v>121</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="D96" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E96" s="8"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="5"/>
       <c r="F96" s="5"/>
       <c r="G96" s="5"/>
       <c r="H96" s="5"/>
@@ -4281,22 +3714,19 @@
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
       <c r="L96" s="5"/>
-      <c r="M96" s="5"/>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>296</v>
+        <v>187</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="D97" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="E97" s="8"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="5"/>
       <c r="F97" s="5"/>
       <c r="G97" s="5"/>
       <c r="H97" s="5"/>
@@ -4304,22 +3734,19 @@
       <c r="J97" s="5"/>
       <c r="K97" s="5"/>
       <c r="L97" s="5"/>
-      <c r="M97" s="5"/>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>299</v>
+        <v>79</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D98" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="4"/>
       <c r="F98" s="4"/>
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
@@ -4327,22 +3754,19 @@
       <c r="J98" s="4"/>
       <c r="K98" s="4"/>
       <c r="L98" s="4"/>
-      <c r="M98" s="4"/>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>300</v>
+        <v>19</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D99" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="4"/>
       <c r="F99" s="4"/>
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
@@ -4350,22 +3774,19 @@
       <c r="J99" s="4"/>
       <c r="K99" s="4"/>
       <c r="L99" s="4"/>
-      <c r="M99" s="4"/>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>301</v>
+        <v>49</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D100" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="4"/>
       <c r="F100" s="4"/>
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
@@ -4373,22 +3794,19 @@
       <c r="J100" s="4"/>
       <c r="K100" s="4"/>
       <c r="L100" s="4"/>
-      <c r="M100" s="4"/>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>302</v>
+        <v>143</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="D101" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="E101" s="8"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="5"/>
       <c r="F101" s="5"/>
       <c r="G101" s="5"/>
       <c r="H101" s="5"/>
@@ -4396,22 +3814,19 @@
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>
       <c r="L101" s="5"/>
-      <c r="M101" s="5"/>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>303</v>
+        <v>199</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="D102" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="E102" s="8"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="5"/>
       <c r="F102" s="5"/>
       <c r="G102" s="5"/>
       <c r="H102" s="5"/>
@@ -4419,22 +3834,19 @@
       <c r="J102" s="5"/>
       <c r="K102" s="5"/>
       <c r="L102" s="5"/>
-      <c r="M102" s="5"/>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>301</v>
+        <v>159</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D103" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="E103" s="8"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="5"/>
       <c r="F103" s="5"/>
       <c r="G103" s="5"/>
       <c r="H103" s="5"/>
@@ -4442,22 +3854,19 @@
       <c r="J103" s="5"/>
       <c r="K103" s="5"/>
       <c r="L103" s="5"/>
-      <c r="M103" s="5"/>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>304</v>
+        <v>163</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="D104" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="E104" s="7"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="4"/>
       <c r="F104" s="4"/>
       <c r="G104" s="4"/>
       <c r="H104" s="4"/>
@@ -4465,22 +3874,19 @@
       <c r="J104" s="4"/>
       <c r="K104" s="4"/>
       <c r="L104" s="4"/>
-      <c r="M104" s="4"/>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>305</v>
+        <v>51</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D105" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="4"/>
       <c r="F105" s="4"/>
       <c r="G105" s="4"/>
       <c r="H105" s="4"/>
@@ -4488,22 +3894,19 @@
       <c r="J105" s="4"/>
       <c r="K105" s="4"/>
       <c r="L105" s="4"/>
-      <c r="M105" s="4"/>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>306</v>
+        <v>219</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="D106" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="E106" s="7"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="4"/>
       <c r="F106" s="4"/>
       <c r="G106" s="4"/>
       <c r="H106" s="4"/>
@@ -4511,22 +3914,19 @@
       <c r="J106" s="4"/>
       <c r="K106" s="4"/>
       <c r="L106" s="4"/>
-      <c r="M106" s="4"/>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>304</v>
+        <v>229</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="D107" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="E107" s="8"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="5"/>
       <c r="F107" s="5"/>
       <c r="G107" s="5"/>
       <c r="H107" s="5"/>
@@ -4534,22 +3934,19 @@
       <c r="J107" s="5"/>
       <c r="K107" s="5"/>
       <c r="L107" s="5"/>
-      <c r="M107" s="5"/>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>304</v>
+        <v>39</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D108" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E108" s="8"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="5"/>
       <c r="F108" s="5"/>
       <c r="G108" s="5"/>
       <c r="H108" s="5"/>
@@ -4557,22 +3954,19 @@
       <c r="J108" s="5"/>
       <c r="K108" s="5"/>
       <c r="L108" s="5"/>
-      <c r="M108" s="5"/>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>306</v>
+        <v>129</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="D109" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="E109" s="8"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="5"/>
       <c r="F109" s="5"/>
       <c r="G109" s="5"/>
       <c r="H109" s="5"/>
@@ -4580,22 +3974,19 @@
       <c r="J109" s="5"/>
       <c r="K109" s="5"/>
       <c r="L109" s="5"/>
-      <c r="M109" s="5"/>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>307</v>
+        <v>3</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D110" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E110" s="7"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="4"/>
       <c r="F110" s="4"/>
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
@@ -4603,22 +3994,19 @@
       <c r="J110" s="4"/>
       <c r="K110" s="4"/>
       <c r="L110" s="4"/>
-      <c r="M110" s="4"/>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>308</v>
+        <v>29</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D111" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E111" s="7"/>
+      <c r="D111" s="7"/>
+      <c r="E111" s="4"/>
       <c r="F111" s="4"/>
       <c r="G111" s="4"/>
       <c r="H111" s="4"/>
@@ -4626,22 +4014,19 @@
       <c r="J111" s="4"/>
       <c r="K111" s="4"/>
       <c r="L111" s="4"/>
-      <c r="M111" s="4"/>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>309</v>
+        <v>227</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="D112" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="E112" s="7"/>
+      <c r="D112" s="7"/>
+      <c r="E112" s="4"/>
       <c r="F112" s="4"/>
       <c r="G112" s="4"/>
       <c r="H112" s="4"/>
@@ -4649,22 +4034,19 @@
       <c r="J112" s="4"/>
       <c r="K112" s="4"/>
       <c r="L112" s="4"/>
-      <c r="M112" s="4"/>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>308</v>
+        <v>71</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D113" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E113" s="8"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="5"/>
       <c r="F113" s="5"/>
       <c r="G113" s="5"/>
       <c r="H113" s="5"/>
@@ -4672,24 +4054,21 @@
       <c r="J113" s="5"/>
       <c r="K113" s="5"/>
       <c r="L113" s="5"/>
-      <c r="M113" s="5"/>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>308</v>
+        <v>73</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E114" s="8" t="s">
-        <v>257</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="E114" s="5"/>
       <c r="F114" s="5"/>
       <c r="G114" s="5"/>
       <c r="H114" s="5"/>
@@ -4697,22 +4076,19 @@
       <c r="J114" s="5"/>
       <c r="K114" s="5"/>
       <c r="L114" s="5"/>
-      <c r="M114" s="5"/>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>310</v>
+        <v>7</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D115" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E115" s="8"/>
+      <c r="D115" s="8"/>
+      <c r="E115" s="5"/>
       <c r="F115" s="5"/>
       <c r="G115" s="5"/>
       <c r="H115" s="5"/>
@@ -4720,22 +4096,19 @@
       <c r="J115" s="5"/>
       <c r="K115" s="5"/>
       <c r="L115" s="5"/>
-      <c r="M115" s="5"/>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>311</v>
+        <v>231</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="D116" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="E116" s="7"/>
+      <c r="D116" s="7"/>
+      <c r="E116" s="4"/>
       <c r="F116" s="4"/>
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
@@ -4743,22 +4116,19 @@
       <c r="J116" s="4"/>
       <c r="K116" s="4"/>
       <c r="L116" s="4"/>
-      <c r="M116" s="4"/>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>312</v>
+        <v>135</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="D117" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="E117" s="7"/>
+      <c r="D117" s="7"/>
+      <c r="E117" s="4"/>
       <c r="F117" s="4"/>
       <c r="G117" s="4"/>
       <c r="H117" s="4"/>
@@ -4766,24 +4136,21 @@
       <c r="J117" s="4"/>
       <c r="K117" s="4"/>
       <c r="L117" s="4"/>
-      <c r="M117" s="4"/>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>313</v>
+        <v>83</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E118" s="7" t="s">
-        <v>318</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="E118" s="4"/>
       <c r="F118" s="4"/>
       <c r="G118" s="4"/>
       <c r="H118" s="4"/>
@@ -4791,22 +4158,19 @@
       <c r="J118" s="4"/>
       <c r="K118" s="4"/>
       <c r="L118" s="4"/>
-      <c r="M118" s="4"/>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>313</v>
+        <v>43</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D119" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E119" s="8"/>
+      <c r="D119" s="8"/>
+      <c r="E119" s="5"/>
       <c r="F119" s="5"/>
       <c r="G119" s="5"/>
       <c r="H119" s="5"/>
@@ -4814,22 +4178,19 @@
       <c r="J119" s="5"/>
       <c r="K119" s="5"/>
       <c r="L119" s="5"/>
-      <c r="M119" s="5"/>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>314</v>
+        <v>125</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="D120" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="E120" s="8"/>
+      <c r="D120" s="8"/>
+      <c r="E120" s="5"/>
       <c r="F120" s="5"/>
       <c r="G120" s="5"/>
       <c r="H120" s="5"/>
@@ -4837,22 +4198,19 @@
       <c r="J120" s="5"/>
       <c r="K120" s="5"/>
       <c r="L120" s="5"/>
-      <c r="M120" s="5"/>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" s="7" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>312</v>
+        <v>127</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D121" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="E121" s="8"/>
+      <c r="D121" s="8"/>
+      <c r="E121" s="5"/>
       <c r="F121" s="5"/>
       <c r="G121" s="5"/>
       <c r="H121" s="5"/>
@@ -4860,7 +4218,6 @@
       <c r="J121" s="5"/>
       <c r="K121" s="5"/>
       <c r="L121" s="5"/>
-      <c r="M121" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
